--- a/재개봉 영화 평점.xlsx
+++ b/재개봉 영화 평점.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>박하사탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,38 @@
   </si>
   <si>
     <t>인터스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이타닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이터널 선샤인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하울의 움직이는 성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센과 히치로의 행방불명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500일의 썸머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미녀와 야수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생은 아름다워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타워즈: 에피소드1 - 보이지 않는 위험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,13 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="42.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -698,9 +733,73 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
       <c r="B29">
-        <f>AVERAGE(B1:B28)</f>
-        <v>9.002142857142859</v>
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <f>AVERAGE(B1:B36)</f>
+        <v>8.9847222222222243</v>
       </c>
     </row>
   </sheetData>
